--- a/OperationalApplicationSystem/src/main/webapp/templet/CustomsGeneralInit.xlsx
+++ b/OperationalApplicationSystem/src/main/webapp/templet/CustomsGeneralInit.xlsx
@@ -5,17 +5,17 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/JAVA/OperationalApplicationSystem/OperationalApplicationSystem/src/main/webapp/templet/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12660"/>
+    <workbookView xWindow="5420" yWindow="1360" windowWidth="22260" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>海关物料编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,13 @@
   </si>
   <si>
     <t>监管库存</t>
+  </si>
+  <si>
+    <t>月份</t>
+    <rPh sb="0" eb="1">
+      <t>yue'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,64 +419,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1095"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
